--- a/myopia-business/bootstrap/src/main/resources/template/studentImport.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/template/studentImport.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23730"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_701124C9D776CC5B650E2F8428451DA65F929A35" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="筛查学生表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>学生表</t>
   </si>
@@ -29,6 +41,9 @@
   </si>
   <si>
     <t>民族(1：汉族  2：蒙古族  3：藏族  4：壮族  5:回族  6:其他  )</t>
+  </si>
+  <si>
+    <t>学校编号</t>
   </si>
   <si>
     <t>年级</t>
@@ -163,14 +178,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -183,158 +192,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,13 +207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,192 +219,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -569,251 +247,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,90 +272,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFFCC"/>
-      <color rgb="00FFF2CC"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFF2CC"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1177,47 +566,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="3" max="3" width="11.75"/>
     <col min="4" max="4" width="37.25" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="21.75" customWidth="1"/>
-    <col min="9" max="13" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
+    <col min="10" max="14" width="14.375" customWidth="1"/>
+    <col min="15" max="15" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="18" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" ht="45" customHeight="1" spans="1:16">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" ht="45" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1230,7 +621,7 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1245,58 +636,59 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" ht="18" customHeight="1" spans="1:16">
+      <c r="Q2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4">
         <v>34253</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3">
         <v>1111111</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="I3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3">
         <v>13123455432</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>24</v>
@@ -1310,167 +702,177 @@
       <c r="N3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:16">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="10" t="s">
+      <c r="Q3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="10" t="s">
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:16">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="10" t="s">
+      <c r="Q4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:16">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="10" t="s">
+      <c r="Q5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:16">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="10" t="s">
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:16">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="10" t="s">
+      <c r="Q7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:16">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="10" t="s">
+    </row>
+    <row r="8" spans="1:17" ht="18" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:16">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="10" t="s">
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" ht="18" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1480,17 +882,18 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="O11" s="5"/>
+      <c r="P11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1500,17 +903,18 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="O12" s="5"/>
+      <c r="P12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1520,17 +924,18 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="O13" s="5"/>
+      <c r="P13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1540,17 +945,18 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="O14" s="5"/>
+      <c r="P14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1560,17 +966,18 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="O15" s="5"/>
+      <c r="P15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1580,17 +987,18 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="O16" s="5"/>
+      <c r="P16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1600,17 +1008,18 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="O17" s="5"/>
+      <c r="P17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1620,17 +1029,18 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="O18" s="5"/>
+      <c r="P18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1640,17 +1050,18 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="O19" s="5"/>
+      <c r="P19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1660,17 +1071,18 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="5"/>
+      <c r="P20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1680,13 +1092,14 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1696,13 +1109,14 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1712,13 +1126,14 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1728,13 +1143,14 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1744,13 +1160,14 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1760,13 +1177,14 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1776,13 +1194,14 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1792,13 +1211,14 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1808,13 +1228,14 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -1824,28 +1245,44 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5:D30">
-      <formula1>$P$2:$P$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 E3 D4 E4 D5:D30 E5:E30" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$Q$2:$Q$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E23">
-      <formula1>$O$2:$O$20</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$P$2:$P$20</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101004B6D8A1CD1423A4B8D4D5DEFA52C453D" ma:contentTypeVersion="12" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="1df8f23a351facd4587f5c77ce43e7c0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7ea92aa9-b9d9-496e-9f4f-04b987921789" xmlns:ns3="9f45abd3-cfd2-4b8b-be93-7022777a81ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e49172a2ad1537ee220bfdbd25c3904f" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B6D8A1CD1423A4B8D4D5DEFA52C453D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49692f9fd0de76e21985a51b3fb35302">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7ea92aa9-b9d9-496e-9f4f-04b987921789" xmlns:ns3="9f45abd3-cfd2-4b8b-be93-7022777a81ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3479310f70bf85556a19b3d7ba23b63b" ns2:_="" ns3:_="">
     <xsd:import namespace="7ea92aa9-b9d9-496e-9f4f-04b987921789"/>
     <xsd:import namespace="9f45abd3-cfd2-4b8b-be93-7022777a81ef"/>
     <xsd:element name="properties">
@@ -1934,7 +1371,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9f45abd3-cfd2-4b8b-be93-7022777a81ef" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="共享对象:" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1953,7 +1390,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="共享对象详细信息" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1970,8 +1407,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="内容类型"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="标题"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2060,33 +1497,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A183383-EB38-4B1D-9A25-846247CF62C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2993C044-2307-4EF4-9FFD-3E28B1B79462}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15CF804C-761B-44C7-968B-AB6709E3A246}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15CF804C-761B-44C7-968B-AB6709E3A246}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2993C044-2307-4EF4-9FFD-3E28B1B79462}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D05DA459-667A-4307-A74F-9F8DDC8DC6F9}"/>
 </file>